--- a/public/templates/import_user_template.xlsx
+++ b/public/templates/import_user_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TokyoTechLab\ttlab-tims-web-app\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EA8E56-B7D7-44C9-AF4A-4075279A19FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D5F4A3-8C1B-4477-830C-28346B1DDA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8759E567-ED1D-428A-BCFD-0ACB3FAE8893}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>fullName</t>
   </si>
@@ -94,9 +94,6 @@
     <t>TTLab Adminaaaaa</t>
   </si>
   <si>
-    <t>15/03/2022</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -106,22 +103,22 @@
     <t>supervisor</t>
   </si>
   <si>
+    <t xml:space="preserve">15/03/2022     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an hà nội           </t>
+  </si>
+  <si>
+    <t>Hà Đông - Hà Nội</t>
+  </si>
+  <si>
+    <t>Tỉnh Bắc Giang</t>
+  </si>
+  <si>
+    <t>tims@tokyotechlab.com</t>
+  </si>
+  <si>
     <t>VCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/03/2022     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an hà nội           </t>
-  </si>
-  <si>
-    <t>Hà Đông - Hà Nội</t>
-  </si>
-  <si>
-    <t>Tỉnh Bắc Giang</t>
-  </si>
-  <si>
-    <t>tims@tokyotechlab.com</t>
   </si>
 </sst>
 </file>
@@ -166,9 +163,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -484,147 +482,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FEDDBC-7BB6-41AF-A33C-0845DA885750}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
         <v>23223211109</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1">
+        <v>12121212</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1">
+        <v>333333333</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
-        <v>12121212</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2">
-        <v>333333333</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>1111111111</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>1111111111</v>
       </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="10">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:G1048576 L5:L1048576 R5:R1048576 L1:L3 F1:G3 A1:A3 A5:A1048576 R1:R3" xr:uid="{1E791C00-5A5B-4312-A0B3-0B4CFCE7B7A0}">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576 C1:C3" xr:uid="{B8A437F0-0FC7-449D-A0AA-5BA37E5BBD77}">
+      <formula1>9</formula1>
+      <formula2>11</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576 D1:D3 D5:D1048576 B1:B3" xr:uid="{46017806-1359-4062-8D7D-643EF91BED3D}">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576 E1:E3" xr:uid="{1D485332-4270-4CBF-ABE4-4E79B3D37951}">
+      <formula1>"male, female"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576 H1:H3" xr:uid="{6CD13626-A006-4256-B365-3B3CFBBEB47B}">
+      <formula1>8</formula1>
+      <formula2>14</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576 I1:I3" xr:uid="{A34389AF-5247-4A6F-8DD0-E1B481249F51}">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576 J1:J3" xr:uid="{0232B6CE-9E62-4FDE-B91A-41A3E11BB294}">
+      <formula1>9</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576 K1:K3" xr:uid="{D6AC22BF-A7FE-40B0-9A37-8D765EC62851}">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576 M1:N3 M5:N1048576 Q1:Q3" xr:uid="{2EFC0579-0FC9-4AFF-BC68-7DB5542D6D37}">
+      <formula1>2000</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:P1048576 O1:P3" xr:uid="{A7F3CE00-FFD8-4948-9284-E7786285CDFF}">
+      <formula1>10</formula1>
+      <formula2>13</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F89AAA14-F0CF-4E8A-B683-1A497D3739A5}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B2136140-C776-491A-8A05-CBC9D9350B67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>